--- a/references/scores.xlsx
+++ b/references/scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omarchoa/GitHub/Meteo_Dataviz/models/omar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA2E93-09B1-E145-BE09-CDFDC2D7BC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2021751-8BD1-0942-A330-71EC06D71EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4320" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{25CEACEB-E656-904A-91C6-B0E4771ADE3D}"/>
+    <workbookView xWindow="-4300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{25CEACEB-E656-904A-91C6-B0E4771ADE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="106">
   <si>
     <t>dataset</t>
   </si>
@@ -69,9 +69,6 @@
     <t>ready_Evaporation_Sunshine.csv</t>
   </si>
   <si>
-    <t>ready_Evaporation_Sunshine_Cloud9am_Cloud3pm.csv</t>
-  </si>
-  <si>
     <t>KNN + DTW</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>ready_Cloud9am_Cloud3pm.csv</t>
   </si>
   <si>
-    <t>ready_Evaporation_Sunshine_WindGustDir_WindGustSpeed_Pressure9am_Pressure3pm_WindGustDirNum.csv</t>
-  </si>
-  <si>
     <t>7.1.2</t>
   </si>
   <si>
@@ -198,24 +192,15 @@
     <t>9.3.2</t>
   </si>
   <si>
-    <t>ready_Evaporation_Sunshine_Pressure9am_Pressure3pm_Cloud9am_Cloud3pm.csv</t>
-  </si>
-  <si>
     <t>ready_Sunshine.csv</t>
   </si>
   <si>
-    <t>ready_WindGustDir_WindGustSpeed_WindGustDirNum.csv</t>
-  </si>
-  <si>
     <t>model_weatherAUS.csv</t>
   </si>
   <si>
     <t>logreg</t>
   </si>
   <si>
-    <t>scale + SMOTE</t>
-  </si>
-  <si>
     <t>rdf</t>
   </si>
   <si>
@@ -234,15 +219,9 @@
     <t>DNN</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
     <t>alex</t>
   </si>
   <si>
-    <t>sort + TSS + scale</t>
-  </si>
-  <si>
     <t>1.3.4</t>
   </si>
   <si>
@@ -315,10 +294,63 @@
     <t>sort + TSS + SMOTE</t>
   </si>
   <si>
-    <t>scale + SMOTE + ROC</t>
-  </si>
-  <si>
-    <t>sort + TSS + scale + SMOTE</t>
+    <t>10.1.6</t>
+  </si>
+  <si>
+    <t>10.3.7</t>
+  </si>
+  <si>
+    <t>ready_Evaporation_Sunshine_
+Cloud9am_Cloud3pm.csv</t>
+  </si>
+  <si>
+    <t>ready_Evaporation_Sunshine_
+WindGustDir_WindGustSpeed_
+Pressure9am_Pressure3pm_
+WindGustDirNum.csv</t>
+  </si>
+  <si>
+    <t>ready_Evaporation_Sunshine_
+Pressure9am_Pressure3pm_
+Cloud9am_Cloud3pm.csv</t>
+  </si>
+  <si>
+    <t>ready_WindGustDir_
+WindGustSpeed_
+WindGustDirNum.csv</t>
+  </si>
+  <si>
+    <t>10.1.8</t>
+  </si>
+  <si>
+    <t>10.3.9</t>
+  </si>
+  <si>
+    <t>sort + TSS + MinMaxScaler</t>
+  </si>
+  <si>
+    <t>sort + TSS + MinMaxScaler + tslearn</t>
+  </si>
+  <si>
+    <t>sort + TSS + StandardScaler</t>
+  </si>
+  <si>
+    <t>StandardScaler</t>
+  </si>
+  <si>
+    <t>StandardScaler + SMOTE</t>
+  </si>
+  <si>
+    <t>StandardScaler + SMOTE + ROC</t>
+  </si>
+  <si>
+    <t>sort + TSS + StandardScaler + RandomUnderSampler</t>
+  </si>
+  <si>
+    <t>sort + TSS + StandardScaler + RandomUnderSampler + tslearn</t>
+  </si>
+  <si>
+    <t>sort + TSS + StandardScaler + SMOTE</t>
   </si>
 </sst>
 </file>
@@ -519,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -549,12 +581,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -898,78 +1004,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1110,29 +1144,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A408D34-4CD1-D046-AAE0-94B5309DDC5F}" name="Tableau1" displayName="Tableau1" ref="A1:K68" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K68" xr:uid="{8A408D34-4CD1-D046-AAE0-94B5309DDC5F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A408D34-4CD1-D046-AAE0-94B5309DDC5F}" name="Tableau1" displayName="Tableau1" ref="A1:K72" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K72" xr:uid="{8A408D34-4CD1-D046-AAE0-94B5309DDC5F}">
     <filterColumn colId="1">
       <filters>
         <filter val="model_weatherAUS.csv"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K68">
-    <sortCondition descending="1" ref="G1:G68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K72">
+    <sortCondition descending="1" ref="G1:G72"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0C265B86-3CB1-1B48-A40B-46920ACDAD17}" name="experiment" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{0C11A77F-0B2A-0140-9FA3-23FF0031B5F9}" name="dataset" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{98934816-857D-C947-A386-0F861BE91BBD}" name="algorithm" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{48FB57EC-6FCE-8C49-918E-1A83172DA097}" name="variation" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5B0A8A29-0B0E-6540-8F74-5D38C850EE49}" name="accuracy" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B59E4D56-80BB-C445-ADFB-20B8A5A49D81}" name="precision_0" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{762DBBCF-95B0-1E4B-BAF7-3C26DD727467}" name="precision_1" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F2330DFB-6473-234D-A118-DF434292A08E}" name="recall_0" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{35E609C3-45CD-8B43-99DE-2DFD0B267F7B}" name="recall_1" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{A5DF0D92-C05D-994A-AB96-C63D756A6CDF}" name="f1-score_0" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E5C473D7-1711-064C-902D-954C63E49273}" name="f1-score_1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0C11A77F-0B2A-0140-9FA3-23FF0031B5F9}" name="dataset" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{98934816-857D-C947-A386-0F861BE91BBD}" name="algorithm" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{48FB57EC-6FCE-8C49-918E-1A83172DA097}" name="variation" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{5B0A8A29-0B0E-6540-8F74-5D38C850EE49}" name="accuracy" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B59E4D56-80BB-C445-ADFB-20B8A5A49D81}" name="precision_0" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{762DBBCF-95B0-1E4B-BAF7-3C26DD727467}" name="precision_1" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F2330DFB-6473-234D-A118-DF434292A08E}" name="recall_0" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{35E609C3-45CD-8B43-99DE-2DFD0B267F7B}" name="recall_1" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{A5DF0D92-C05D-994A-AB96-C63D756A6CDF}" name="f1-score_0" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E5C473D7-1711-064C-902D-954C63E49273}" name="f1-score_1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1435,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36275558-46A0-9F4C-BFD4-2A0983E36A68}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1445,9 +1479,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="27" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="27" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1455,18 +1489,18 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
+      <c r="D1" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
@@ -1490,18 +1524,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="10">
         <v>0.85</v>
@@ -1525,18 +1559,18 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="10">
         <v>0.85</v>
@@ -1560,18 +1594,18 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E4" s="10">
         <v>0.83</v>
@@ -1595,18 +1629,18 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
+      <c r="D5" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="10">
         <v>0.9</v>
@@ -1630,18 +1664,18 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
+      <c r="D6" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="10">
         <v>0.78</v>
@@ -1665,18 +1699,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
+      <c r="D7" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E7" s="10">
         <v>0.89</v>
@@ -1700,18 +1734,18 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>96</v>
+      <c r="D8" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="E8" s="10">
         <v>0.82</v>
@@ -1735,18 +1769,18 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>86</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>73</v>
+      <c r="D9" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E9" s="10">
         <v>0.8</v>
@@ -1770,18 +1804,18 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>96</v>
+        <v>64</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="10">
         <v>0.84</v>
@@ -1805,2034 +1839,2174 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="B11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="E11" s="10">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F11" s="11">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="11">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="H11" s="12">
         <v>0.99</v>
       </c>
       <c r="I11" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="I12" s="12">
         <v>0.35</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="13">
         <v>0.91</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.94</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.31</v>
-      </c>
-      <c r="H12" s="12">
+    <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="J13" s="13">
         <v>0.91</v>
       </c>
-      <c r="I12" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.88</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.53</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0.87</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0.88</v>
-      </c>
       <c r="K13" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="E14" s="10">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F14" s="11">
         <v>0.87</v>
       </c>
       <c r="G14" s="11">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="12">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="I14" s="12">
         <v>0.5</v>
       </c>
       <c r="J14" s="13">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="K14" s="14">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
+      <c r="D15" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="10">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="F15" s="11">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="G15" s="11">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="H15" s="12">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I15" s="12">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="J15" s="13">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="K15" s="14">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="10">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F16" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="H17" s="12">
         <v>0.87</v>
       </c>
-      <c r="G16" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.96</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="K16" s="14">
+      <c r="I17" s="12">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="J17" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.91</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="C18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E18" s="10">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F18" s="11">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="H18" s="12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="I18" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="13">
         <v>0.88</v>
       </c>
       <c r="K18" s="14">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="10">
         <v>0.86</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F23" s="11">
         <v>0.89</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G23" s="11">
         <v>0.73</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H23" s="12">
         <v>0.95</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I23" s="12">
         <v>0.54</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J23" s="13">
         <v>0.92</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K23" s="14">
         <v>0.62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+    <row r="24" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B25" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="K26" s="22">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="10">
         <v>0.74</v>
       </c>
-      <c r="F20" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0.71</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0.79</v>
-      </c>
-      <c r="K20" s="14">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0.86</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0.78</v>
-      </c>
-      <c r="F22" s="19">
+      <c r="F30" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
         <v>0.85</v>
       </c>
-      <c r="G22" s="19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0.85</v>
-      </c>
-      <c r="I22" s="20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.77</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="K23" s="14">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0.77</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="K24" s="14">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="K30" s="14">
         <v>0</v>
       </c>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0.88</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0.73</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0.92</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="K27" s="14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0.87</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0.87</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0.54</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="K28" s="14">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.78</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0.87</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0.49</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="K29" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.78</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="J30" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>37</v>
+      <c r="D31" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E31" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="10">
         <v>0.78</v>
       </c>
-      <c r="F31" s="11">
-        <v>0.78</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12">
-        <v>1</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0.93</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="F33" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G33" s="11">
         <v>0.52</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0.78</v>
-      </c>
-      <c r="J32" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="K32" s="14">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0.87</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0.64</v>
       </c>
       <c r="H33" s="12">
         <v>0.87</v>
       </c>
       <c r="I33" s="12">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="J33" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
         <v>0.87</v>
       </c>
-      <c r="K33" s="14">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.78</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="J34" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0.96</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0.9</v>
-      </c>
       <c r="K35" s="14">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>37</v>
+      <c r="D36" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E36" s="10">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="F36" s="11">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="G36" s="11">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="H36" s="12">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="I36" s="12">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="J36" s="13">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>73</v>
+        <v>14</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E37" s="10">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="F37" s="11">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G37" s="11">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="H37" s="12">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="I37" s="12">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="J37" s="13">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="K37" s="14">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E38" s="10">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="F38" s="11">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="G38" s="11">
-        <v>0.34</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H38" s="12">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="I38" s="12">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="J38" s="13">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="K38" s="14">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E39" s="10">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="F39" s="11">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="G39" s="11">
-        <v>0.31</v>
+        <v>0.83</v>
       </c>
       <c r="H39" s="12">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="I39" s="12">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="J39" s="13">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="K39" s="14">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E40" s="10">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="F40" s="11">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
       <c r="G40" s="11">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H40" s="12">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I40" s="12">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="J40" s="13">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="K40" s="14">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>37</v>
+      <c r="D41" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E41" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="K41" s="14">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="J43" s="13">
         <v>0.77</v>
       </c>
-      <c r="F41" s="11">
-        <v>0.77</v>
-      </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-      <c r="J41" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="K41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.78</v>
-      </c>
-      <c r="F42" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H42" s="12">
-        <v>0.97</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J42" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="K42" s="14">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0.87</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="J43" s="13">
-        <v>0.86</v>
-      </c>
       <c r="K43" s="14">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E44" s="10">
         <v>0.78</v>
       </c>
       <c r="F44" s="11">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="G44" s="11">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="H44" s="12">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="I44" s="12">
-        <v>0.41</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J44" s="13">
         <v>0.86</v>
       </c>
       <c r="K44" s="14">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E45" s="10">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="F45" s="11">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="G45" s="11">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="H45" s="12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="I45" s="12">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="J45" s="13">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="K45" s="14">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>37</v>
+      <c r="D46" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E46" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="K47" s="14">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="J49" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="K49" s="14">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="10">
         <v>0.8</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F50" s="11">
         <v>0.8</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G50" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H50" s="12">
         <v>1</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I50" s="12">
         <v>0</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J50" s="13">
         <v>0.89</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K50" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="F47" s="11">
-        <v>0.88</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0.96</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="K47" s="14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="F48" s="11">
-        <v>0.87</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0.92</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0.47</v>
-      </c>
-      <c r="J48" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="K48" s="14">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="9" t="s">
+    <row r="51" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0.49</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="J49" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="K49" s="14">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="J50" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="K50" s="14">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>58</v>
+      <c r="B51" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>37</v>
+      <c r="D51" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E51" s="10">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="F51" s="11">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="G51" s="11">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="H51" s="12">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="I51" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J51" s="13">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="K51" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>73</v>
+        <v>14</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E52" s="10">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="F52" s="11">
         <v>0.87</v>
       </c>
       <c r="G52" s="11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H52" s="12">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="I52" s="12">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="J52" s="13">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="K52" s="14">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>59</v>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="F53" s="19">
-        <v>0.81</v>
-      </c>
-      <c r="G53" s="19">
-        <v>0.61</v>
-      </c>
-      <c r="H53" s="20">
+        <v>14</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G54" s="11">
         <v>0.83</v>
       </c>
-      <c r="I53" s="20">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J53" s="21">
-        <v>0.82</v>
-      </c>
-      <c r="K53" s="22">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="F54" s="11">
+      <c r="H54" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="K54" s="14">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="10">
         <v>0.79</v>
       </c>
-      <c r="G54" s="11">
-        <v>0.53</v>
-      </c>
-      <c r="H54" s="12">
+      <c r="F55" s="11">
         <v>0.79</v>
       </c>
-      <c r="I54" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="J54" s="13">
-        <v>0.79</v>
-      </c>
-      <c r="K54" s="14">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>1</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="K55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0.78</v>
-      </c>
-      <c r="F55" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="H55" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="J55" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="K55" s="14">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>37</v>
+      <c r="D56" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E56" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="J56" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="K56" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0.61</v>
+      </c>
+      <c r="H57" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="I57" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J57" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="K57" s="22">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="J58" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K58" s="14">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="J59" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="K59" s="14">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="10">
         <v>0.69</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F60" s="11">
         <v>0.69</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G60" s="11">
         <v>0</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H60" s="12">
         <v>1</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I60" s="12">
         <v>0</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J60" s="13">
         <v>0.82</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K60" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="9" t="s">
+    <row r="61" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="D61" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="10">
         <v>0.82</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F61" s="11">
         <v>0.82</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G61" s="11">
         <v>0.82</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H61" s="12">
         <v>0.94</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I61" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J61" s="13">
         <v>0.88</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K61" s="14">
         <v>0.66</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="17" t="s">
+    <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="F58" s="19">
-        <v>0.86</v>
-      </c>
-      <c r="G58" s="19">
-        <v>0.81</v>
-      </c>
-      <c r="H58" s="20">
-        <v>0.97</v>
-      </c>
-      <c r="I58" s="20">
-        <v>0.45</v>
-      </c>
-      <c r="J58" s="21">
-        <v>0.91</v>
-      </c>
-      <c r="K58" s="22">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="F59" s="19">
-        <v>0.87</v>
-      </c>
-      <c r="G59" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="H59" s="20">
-        <v>0.97</v>
-      </c>
-      <c r="I59" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J59" s="21">
-        <v>0.92</v>
-      </c>
-      <c r="K59" s="22">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="18">
-        <v>0.82</v>
-      </c>
-      <c r="F60" s="19">
-        <v>0.83</v>
-      </c>
-      <c r="G60" s="19">
-        <v>0.79</v>
-      </c>
-      <c r="H60" s="20">
-        <v>0.98</v>
-      </c>
-      <c r="I60" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="J60" s="21">
-        <v>0.89</v>
-      </c>
-      <c r="K60" s="22">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="18">
-        <v>0.82</v>
-      </c>
-      <c r="F61" s="19">
-        <v>0.82</v>
-      </c>
-      <c r="G61" s="19">
-        <v>0.79</v>
-      </c>
-      <c r="H61" s="20">
-        <v>0.98</v>
-      </c>
-      <c r="I61" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="J61" s="21">
-        <v>0.89</v>
-      </c>
-      <c r="K61" s="22">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>60</v>
+      <c r="B62" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>71</v>
+      <c r="D62" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="E62" s="18">
         <v>0.82</v>
       </c>
       <c r="F62" s="19">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="G62" s="19">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="H62" s="20">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I62" s="20">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="J62" s="21">
         <v>0.89</v>
       </c>
       <c r="K62" s="22">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>95</v>
+      <c r="D63" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E63" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="F63" s="19">
         <v>0.83</v>
       </c>
-      <c r="F63" s="19">
+      <c r="G63" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="H63" s="20">
+        <v>0.97</v>
+      </c>
+      <c r="I63" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="J63" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="K63" s="22">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="F64" s="19">
         <v>0.84</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G64" s="19">
         <v>0.75</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H64" s="20">
         <v>0.96</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I64" s="20">
         <v>0.37</v>
       </c>
-      <c r="J63" s="21">
+      <c r="J64" s="21">
         <v>0.9</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K64" s="22">
         <v>0.49</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="F64" s="19">
-        <v>0.88</v>
-      </c>
-      <c r="G64" s="19">
-        <v>0.72</v>
-      </c>
-      <c r="H64" s="20">
-        <v>0.94</v>
-      </c>
-      <c r="I64" s="20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J64" s="21">
-        <v>0.91</v>
-      </c>
-      <c r="K64" s="22">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>62</v>
+      <c r="D65" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="E65" s="18">
+        <v>0.86</v>
+      </c>
+      <c r="F65" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="H65" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="I65" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J65" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="K65" s="22">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="18">
         <v>0.82799999999999996</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>0.67</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H66" s="20">
         <v>0.875</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I66" s="20">
         <v>0.69699999999999995</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J66" s="21">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K66" s="22">
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="17" t="s">
+    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D67" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0.87</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="H67" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="I67" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="J67" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="K67" s="22">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="18">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F68" s="19">
+        <v>0.91</v>
+      </c>
+      <c r="G68" s="19">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H68" s="20">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I68" s="20">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J68" s="21">
+        <v>0.871</v>
+      </c>
+      <c r="K68" s="22">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="G69" s="19">
+        <v>0.51</v>
+      </c>
+      <c r="H69" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="I69" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="J69" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="K69" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="18">
-        <v>0.83</v>
-      </c>
-      <c r="F66" s="19">
+      <c r="E70" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="G70" s="19">
+        <v>0.51</v>
+      </c>
+      <c r="H70" s="20">
         <v>0.87</v>
       </c>
-      <c r="G66" s="19">
-        <v>0.64</v>
-      </c>
-      <c r="H66" s="20">
-        <v>0.91</v>
-      </c>
-      <c r="I66" s="20">
-        <v>0.54</v>
-      </c>
-      <c r="J66" s="21">
+      <c r="I70" s="20">
+        <v>0.47</v>
+      </c>
+      <c r="J70" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="K70" s="22">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="F71" s="19">
         <v>0.89</v>
       </c>
-      <c r="K66" s="22">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="18">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="F67" s="19">
-        <v>0.91</v>
-      </c>
-      <c r="G67" s="19">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="H67" s="20">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="I67" s="20">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="J67" s="21">
-        <v>0.871</v>
-      </c>
-      <c r="K67" s="22">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0.78</v>
-      </c>
-      <c r="F68" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="G68" s="11">
-        <v>0.51</v>
-      </c>
-      <c r="H68" s="12">
-        <v>0.86</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0.49</v>
-      </c>
-      <c r="J68" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="K68" s="14">
-        <v>0.5</v>
+      <c r="G71" s="19">
+        <v>0.41</v>
+      </c>
+      <c r="H71" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="I71" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="J71" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="K71" s="22">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I72" s="12">
+        <v>1</v>
+      </c>
+      <c r="J72" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="K72" s="14">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>

--- a/references/scores.xlsx
+++ b/references/scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omarchoa/GitHub/Meteo_Dataviz/models/omar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexW\Documents\GitHub\meteo_sep23bds\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2021751-8BD1-0942-A330-71EC06D71EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083CA605-77FA-4B37-AD7E-BE5A8FD39236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{25CEACEB-E656-904A-91C6-B0E4771ADE3D}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{25CEACEB-E656-904A-91C6-B0E4771ADE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -612,72 +612,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -991,6 +925,39 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1010,6 +977,39 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1157,16 +1157,16 @@
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0C265B86-3CB1-1B48-A40B-46920ACDAD17}" name="experiment" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{0C11A77F-0B2A-0140-9FA3-23FF0031B5F9}" name="dataset" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{98934816-857D-C947-A386-0F861BE91BBD}" name="algorithm" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{48FB57EC-6FCE-8C49-918E-1A83172DA097}" name="variation" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{5B0A8A29-0B0E-6540-8F74-5D38C850EE49}" name="accuracy" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B59E4D56-80BB-C445-ADFB-20B8A5A49D81}" name="precision_0" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{762DBBCF-95B0-1E4B-BAF7-3C26DD727467}" name="precision_1" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F2330DFB-6473-234D-A118-DF434292A08E}" name="recall_0" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{35E609C3-45CD-8B43-99DE-2DFD0B267F7B}" name="recall_1" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A5DF0D92-C05D-994A-AB96-C63D756A6CDF}" name="f1-score_0" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E5C473D7-1711-064C-902D-954C63E49273}" name="f1-score_1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0C11A77F-0B2A-0140-9FA3-23FF0031B5F9}" name="dataset" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{98934816-857D-C947-A386-0F861BE91BBD}" name="algorithm" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{48FB57EC-6FCE-8C49-918E-1A83172DA097}" name="variation" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5B0A8A29-0B0E-6540-8F74-5D38C850EE49}" name="accuracy" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B59E4D56-80BB-C445-ADFB-20B8A5A49D81}" name="precision_0" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{762DBBCF-95B0-1E4B-BAF7-3C26DD727467}" name="precision_1" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F2330DFB-6473-234D-A118-DF434292A08E}" name="recall_0" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{35E609C3-45CD-8B43-99DE-2DFD0B267F7B}" name="recall_1" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A5DF0D92-C05D-994A-AB96-C63D756A6CDF}" name="f1-score_0" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E5C473D7-1711-064C-902D-954C63E49273}" name="f1-score_1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1471,25 +1471,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36275558-46A0-9F4C-BFD4-2A0983E36A68}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="30.875" style="27" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>75</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>65</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>64</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>86</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>64</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>64</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>64</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>64</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>84</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>76</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>23</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>25</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>77</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>34</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>38</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>39</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>79</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>40</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>41</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>69</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>42</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>80</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>70</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>81</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>47</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>48</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>49</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>82</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>50</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>51</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>72</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>52</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>83</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>53</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>54</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>73</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>64</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>64</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>87</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -3743,28 +3743,28 @@
         <v>100</v>
       </c>
       <c r="E65" s="18">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F65" s="19">
         <v>0.88</v>
       </c>
       <c r="G65" s="19">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="H65" s="20">
         <v>0.94</v>
       </c>
       <c r="I65" s="20">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="J65" s="21">
         <v>0.91</v>
       </c>
       <c r="K65" s="22">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>64</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>64</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>64</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>85</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>95</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>89</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>90</v>
       </c>
